--- a/data/rawdata/Raw Data B. treatae RI Modeling Project.xlsx
+++ b/data/rawdata/Raw Data B. treatae RI Modeling Project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glenrayhood/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e32bd20bc6abb0da/DOCUME^F1/MobaXterm/slash/xande_laptopfpv4u3jf/RemoteFiles/5115398_2_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81BB571-3834-AF44-82E1-B1CB5942DC5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{A81BB571-3834-AF44-82E1-B1CB5942DC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F67996DB-8845-4C95-82C3-4ED100A62917}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="2120" windowWidth="24240" windowHeight="13160" activeTab="2" xr2:uid="{A809584C-ACD5-5942-B2B9-D1AA8234A1B0}"/>
+    <workbookView xWindow="5340" yWindow="1920" windowWidth="9825" windowHeight="12570" xr2:uid="{A809584C-ACD5-5942-B2B9-D1AA8234A1B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Leaf Flush (Plant)" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,20 @@
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -13557,13 +13567,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>390073</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>160867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>629680</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>18627</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16021,363 +16031,6 @@
         <row r="7">
           <cell r="A7">
             <v>42804</v>
-          </cell>
-          <cell r="E7">
-            <v>0.30982765400000001</v>
-          </cell>
-          <cell r="G7">
-            <v>0.27403414199999998</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>42805</v>
-          </cell>
-          <cell r="F8">
-            <v>0.34873012399999997</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>42806</v>
-          </cell>
-          <cell r="G9">
-            <v>0.71967654999999997</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>42807</v>
-          </cell>
-          <cell r="E10">
-            <v>0.59636889900000001</v>
-          </cell>
-          <cell r="F10">
-            <v>0.40600043200000002</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>42808</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>42810</v>
-          </cell>
-          <cell r="C12">
-            <v>1E-10</v>
-          </cell>
-          <cell r="E12">
-            <v>0.70951190600000003</v>
-          </cell>
-          <cell r="G12">
-            <v>0.86343216499999997</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>42811</v>
-          </cell>
-          <cell r="D13">
-            <v>1.1655011999999999E-2</v>
-          </cell>
-          <cell r="F13">
-            <v>0.650046766</v>
-          </cell>
-          <cell r="G13">
-            <v>0.87061994600000003</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>42813</v>
-          </cell>
-          <cell r="C14">
-            <v>0.106796117</v>
-          </cell>
-          <cell r="G14">
-            <v>0.88858939800000003</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>42814</v>
-          </cell>
-          <cell r="B15">
-            <v>1E-10</v>
-          </cell>
-          <cell r="E15">
-            <v>0.80476253099999995</v>
-          </cell>
-          <cell r="F15">
-            <v>0.81379955400000004</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>42815</v>
-          </cell>
-          <cell r="D16">
-            <v>0.114219114</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>42816</v>
-          </cell>
-          <cell r="C17">
-            <v>0.405825243</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>42817</v>
-          </cell>
-          <cell r="F18">
-            <v>0.90272681499999996</v>
-          </cell>
-          <cell r="G18">
-            <v>0.92093441200000004</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>42818</v>
-          </cell>
-          <cell r="E19">
-            <v>0.82975924199999995</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>42819</v>
-          </cell>
-          <cell r="B20">
-            <v>5.1282051000000002E-2</v>
-          </cell>
-          <cell r="C20">
-            <v>0.70485436899999998</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>42820</v>
-          </cell>
-          <cell r="D21">
-            <v>0.35664335699999999</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>42822</v>
-          </cell>
-          <cell r="B22">
-            <v>0.102564103</v>
-          </cell>
-          <cell r="E22">
-            <v>0.94132351000000003</v>
-          </cell>
-          <cell r="F22">
-            <v>0.98388373299999998</v>
-          </cell>
-          <cell r="G22">
-            <v>0.92452830200000002</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>42824</v>
-          </cell>
-          <cell r="C23">
-            <v>0.92233009700000002</v>
-          </cell>
-          <cell r="D23">
-            <v>0.54312354299999999</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>42826</v>
-          </cell>
-          <cell r="B24">
-            <v>0.15384615400000001</v>
-          </cell>
-          <cell r="E24">
-            <v>0.983160111</v>
-          </cell>
-          <cell r="F24">
-            <v>0.99510756199999995</v>
-          </cell>
-          <cell r="G24">
-            <v>0.93530997299999996</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>42828</v>
-          </cell>
-          <cell r="C25">
-            <v>0.99223300999999997</v>
-          </cell>
-          <cell r="D25">
-            <v>0.80419580400000001</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>42830</v>
-          </cell>
-          <cell r="E26">
-            <v>0.99421128800000003</v>
-          </cell>
-          <cell r="F26">
-            <v>0.99539535199999996</v>
-          </cell>
-          <cell r="G26">
-            <v>0.97843665800000001</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>42831</v>
-          </cell>
-          <cell r="B27">
-            <v>0.33333333300000001</v>
-          </cell>
-          <cell r="D27">
-            <v>0.84149184200000005</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>42833</v>
-          </cell>
-          <cell r="C28">
-            <v>0.99223300999999997</v>
-          </cell>
-          <cell r="E28">
-            <v>0.99736876699999999</v>
-          </cell>
-          <cell r="F28">
-            <v>0.99683430500000003</v>
-          </cell>
-          <cell r="G28">
-            <v>0.99281221900000005</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>42834</v>
-          </cell>
-          <cell r="D29">
-            <v>0.89743589800000001</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>42835</v>
-          </cell>
-          <cell r="B30">
-            <v>0.38461538499999998</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>42836</v>
-          </cell>
-          <cell r="E31">
-            <v>0.99763189100000005</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>42837</v>
-          </cell>
-          <cell r="D32">
-            <v>0.94405594400000004</v>
-          </cell>
-          <cell r="F32">
-            <v>0.99942441900000001</v>
-          </cell>
-          <cell r="G32">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>42838</v>
-          </cell>
-          <cell r="B33">
-            <v>0.51282051299999998</v>
-          </cell>
-          <cell r="C33">
-            <v>0.99223300999999997</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>42839</v>
-          </cell>
-          <cell r="E34">
-            <v>0.99894750700000001</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>42840</v>
-          </cell>
-          <cell r="D35">
-            <v>0.97202797200000002</v>
-          </cell>
-          <cell r="F35">
-            <v>0.99971220999999999</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>42841</v>
-          </cell>
-          <cell r="B36">
-            <v>0.56410256400000003</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>42843</v>
-          </cell>
-          <cell r="C37">
-            <v>0.99223300999999997</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>42844</v>
-          </cell>
-          <cell r="D38">
-            <v>1</v>
-          </cell>
-          <cell r="E38">
-            <v>1</v>
-          </cell>
-          <cell r="F38">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>42847</v>
-          </cell>
-          <cell r="C39">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>42849</v>
-          </cell>
-          <cell r="B40">
-            <v>1</v>
           </cell>
         </row>
       </sheetData>
@@ -17090,22 +16743,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F737ED08-D306-3A4A-B603-C37AF67D1353}">
-  <dimension ref="A1:AW50"/>
+  <dimension ref="A1:AW57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="43" width="10.83203125" style="2"/>
-    <col min="44" max="49" width="10.83203125" style="3"/>
+    <col min="5" max="6" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="43" width="10.875" style="2"/>
+    <col min="44" max="49" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>50</v>
       </c>
@@ -17158,7 +16811,7 @@
       <c r="AV1" s="7"/>
       <c r="AW1" s="7"/>
     </row>
-    <row r="2" spans="1:49" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>49</v>
       </c>
@@ -17211,7 +16864,7 @@
       <c r="AV2" s="7"/>
       <c r="AW2" s="7"/>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>51</v>
       </c>
@@ -17228,7 +16881,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -17377,525 +17030,396 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <v>44624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44627</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>43167</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P10" s="2">
         <v>0.28700760566092232</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q10" s="2">
         <v>0.18444055944055945</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R10" s="2">
         <v>0.29505557505557511</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S10" s="2">
         <v>4.1432018908273999E-2</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T10" s="2">
         <v>0.15388591800356505</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U10" s="2">
         <v>0.20640191387559809</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V10" s="2">
         <v>0.23456869772998803</v>
       </c>
-      <c r="W6" s="2">
+      <c r="W10" s="2">
         <v>0.14085908319185059</v>
       </c>
-      <c r="X6" s="2">
+      <c r="X10" s="2">
         <v>0.32633753501400564</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Y10" s="2">
         <v>0.33495969440407736</v>
       </c>
-      <c r="AJ6" s="2">
+      <c r="AJ10" s="2">
         <v>0</v>
       </c>
-      <c r="AK6" s="2">
+      <c r="AK10" s="2">
         <v>0</v>
       </c>
-      <c r="AL6" s="2">
+      <c r="AL10" s="2">
         <v>0</v>
       </c>
-      <c r="AM6" s="2">
+      <c r="AM10" s="2">
         <v>0</v>
       </c>
-      <c r="AN6" s="2">
+      <c r="AN10" s="2">
         <v>0</v>
       </c>
-      <c r="AO6" s="2">
+      <c r="AO10" s="2">
         <v>0</v>
       </c>
-      <c r="AP6" s="2">
+      <c r="AP10" s="2">
         <v>0</v>
       </c>
-      <c r="AQ6" s="2">
+      <c r="AQ10" s="2">
         <v>0</v>
       </c>
+      <c r="AR10" s="4">
+        <v>43167</v>
+      </c>
+      <c r="AU10" s="4">
+        <v>43167</v>
+      </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>43168</v>
       </c>
-      <c r="AR7" s="4">
-        <v>42803</v>
-      </c>
-      <c r="AS7" s="3">
+      <c r="AR11" s="4">
+        <v>43168</v>
+      </c>
+      <c r="AS11" s="3">
         <v>0.29332919105387784</v>
       </c>
-      <c r="AT7" s="3">
+      <c r="AT11" s="3">
         <v>4.1395403591205047E-2</v>
       </c>
-      <c r="AU7" s="4">
-        <v>42803.199999999997</v>
-      </c>
-      <c r="AV7" s="3">
+      <c r="AU11" s="4">
+        <v>43168</v>
+      </c>
+      <c r="AV11" s="3">
         <v>3.2931502049149109E-3</v>
       </c>
-      <c r="AW7" s="5">
+      <c r="AW11" s="5">
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>43169</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B12" s="2">
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C12" s="2">
         <v>0.14280112044817925</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D12" s="2">
         <v>0.18976340221623239</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E12" s="2">
         <v>0.33849924585218699</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F12" s="2">
         <v>0.29971377056569753</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G12" s="2">
         <v>0.38930362740707569</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H12" s="2">
         <v>0.44296536796536801</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I12" s="2">
         <v>0.41066465144051351</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J12" s="2">
         <v>0.40716683695810829</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K12" s="2">
         <v>0.45781266172158019</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L12" s="2">
         <v>0.34195388139879307</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M12" s="2">
         <v>0.53619509893147266</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N12" s="2">
         <v>0.28822783461210572</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O12" s="2">
         <v>0.38777454027454034</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Y12" s="2">
         <v>0.39156120604149747</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="Z12" s="2">
         <v>0</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AA12" s="2">
         <v>0</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AB12" s="2">
         <v>0</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AC12" s="2">
         <v>0</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AD12" s="2">
         <v>0</v>
       </c>
-      <c r="AE8" s="2">
+      <c r="AE12" s="2">
         <v>1.8518518518518517E-3</v>
       </c>
-      <c r="AF8" s="2">
+      <c r="AF12" s="2">
         <v>0</v>
       </c>
-      <c r="AG8" s="2">
+      <c r="AG12" s="2">
         <v>5.1282051282051282E-3</v>
       </c>
-      <c r="AH8" s="2">
+      <c r="AH12" s="2">
         <v>6.0606060606060606E-3</v>
       </c>
-      <c r="AI8" s="2">
+      <c r="AI12" s="2">
         <v>4.726678550207962E-2</v>
       </c>
-      <c r="AR8" s="4"/>
-      <c r="AU8" s="4"/>
+      <c r="AR12" s="4">
+        <v>43169</v>
+      </c>
+      <c r="AU12" s="4">
+        <v>43169</v>
+      </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>43170</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P13" s="2">
         <v>0.27163390663390663</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q13" s="2">
         <v>0.17684746625923098</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R13" s="2">
         <v>0.31804368896661706</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S13" s="2">
         <v>0.1350580232092837</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T13" s="2">
         <v>0.23738761238761241</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U13" s="2">
         <v>0.44083700630887562</v>
       </c>
-      <c r="V9" s="2">
+      <c r="V13" s="2">
         <v>0.37387794198139024</v>
       </c>
-      <c r="W9" s="2">
+      <c r="W13" s="2">
         <v>0.23345667299177736</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X13" s="2">
         <v>0.46651876858773411</v>
       </c>
-      <c r="AJ9" s="2">
+      <c r="AJ13" s="2">
         <v>0</v>
       </c>
-      <c r="AK9" s="2">
+      <c r="AK13" s="2">
         <v>0</v>
       </c>
-      <c r="AL9" s="2">
+      <c r="AL13" s="2">
         <v>0</v>
       </c>
-      <c r="AM9" s="2">
+      <c r="AM13" s="2">
         <v>0</v>
       </c>
-      <c r="AN9" s="2">
+      <c r="AN13" s="2">
         <v>0</v>
       </c>
-      <c r="AO9" s="2">
+      <c r="AO13" s="2">
         <v>0</v>
       </c>
-      <c r="AP9" s="2">
+      <c r="AP13" s="2">
         <v>0</v>
       </c>
-      <c r="AQ9" s="2">
+      <c r="AQ13" s="2">
         <v>0</v>
       </c>
-      <c r="AR9" s="4">
-        <v>42805.833333333336</v>
-      </c>
-      <c r="AS9" s="3">
+      <c r="AR13" s="4">
+        <v>43170</v>
+      </c>
+      <c r="AS13" s="3">
         <v>0.3960330237068474</v>
       </c>
-      <c r="AT9" s="3">
+      <c r="AT13" s="3">
         <v>4.2187700931488915E-2</v>
       </c>
-      <c r="AU9" s="4"/>
+      <c r="AU13" s="4">
+        <v>43170</v>
+      </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>43171</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="Y14" s="2">
         <v>0.41074454530976268</v>
       </c>
-      <c r="AU10" s="4">
-        <v>42806.2</v>
-      </c>
-      <c r="AV10" s="3">
+      <c r="AR14" s="4">
+        <v>43171</v>
+      </c>
+      <c r="AU14" s="4">
+        <v>43171</v>
+      </c>
+      <c r="AV14" s="3">
         <v>5.9518333935216798E-3</v>
       </c>
-      <c r="AW10" s="5">
+      <c r="AW14" s="5">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>43172</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B15" s="2">
         <v>0.17962858846579777</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C15" s="2">
         <v>0.35915804002760526</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D15" s="2">
         <v>0.36879892037786777</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E15" s="2">
         <v>0.36518330308529945</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F15" s="2">
         <v>0.56830065359477122</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G15" s="2">
         <v>0.49926192636764322</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H15" s="2">
         <v>0.50530185758513935</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I15" s="2">
         <v>0.53829365079365077</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J15" s="2">
         <v>0.50544277360066825</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K15" s="2">
         <v>0.53320053181734817</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L15" s="2">
         <v>0.427184265010352</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M15" s="2">
         <v>0.70119047619047614</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N15" s="2">
         <v>0.34537172803301835</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O15" s="2">
         <v>0.50087813115676894</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P15" s="2">
         <v>0.41912783867806358</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q15" s="2">
         <v>0.35938502905716024</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R15" s="2">
         <v>0.48030303030303029</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S15" s="2">
         <v>0.2712878787878788</v>
       </c>
-      <c r="T11" s="2">
+      <c r="T15" s="2">
         <v>0.23970163838769434</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U15" s="2">
         <v>0.59308278252012259</v>
       </c>
-      <c r="V11" s="2">
+      <c r="V15" s="2">
         <v>0.62492424242424249</v>
       </c>
-      <c r="W11" s="2">
+      <c r="W15" s="2">
         <v>0.2960210803689064</v>
       </c>
-      <c r="X11" s="2">
+      <c r="X15" s="2">
         <v>0.60304093567251449</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="Z15" s="2">
         <v>0</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="AA15" s="2">
         <v>0</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AB15" s="2">
         <v>0</v>
       </c>
-      <c r="AC11" s="2">
+      <c r="AC15" s="2">
         <v>0</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AD15" s="2">
         <v>0</v>
       </c>
-      <c r="AE11" s="2">
+      <c r="AE15" s="2">
         <v>8.6238231979935305E-3</v>
       </c>
-      <c r="AF11" s="2">
+      <c r="AF15" s="2">
         <v>0</v>
       </c>
-      <c r="AG11" s="2">
+      <c r="AG15" s="2">
         <v>8.6956521739130436E-3</v>
       </c>
-      <c r="AH11" s="2">
+      <c r="AH15" s="2">
         <v>1.3574660633484165E-2</v>
       </c>
-      <c r="AI11" s="2">
+      <c r="AI15" s="2">
         <v>6.2271062271062272E-2</v>
-      </c>
-      <c r="AJ11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>43173</v>
-      </c>
-      <c r="AR12" s="4">
-        <v>42808.333333333336</v>
-      </c>
-      <c r="AS12" s="3">
-        <v>0.48124429798328289</v>
-      </c>
-      <c r="AT12" s="3">
-        <v>3.5896994159357765E-2</v>
-      </c>
-      <c r="AU12" s="4">
-        <v>42808.6</v>
-      </c>
-      <c r="AV12" s="3">
-        <v>1.2661181531674981E-2</v>
-      </c>
-      <c r="AW12" s="5">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>43174</v>
-      </c>
-      <c r="AE13" s="2">
-        <v>3.2031791099003594E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>43175</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.20677830940988837</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.39708552042517881</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.44482149429517853</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.61009881422924894</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.64429355474247108</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.5853756047873695</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.5731578947368422</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0.65667931688804559</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0.38480519480519482</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0.68679653679653674</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0.44550000000000001</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0.75317706029780329</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0.39516164994425862</v>
-      </c>
-      <c r="O14" s="2">
-        <v>0.62821909406806431</v>
-      </c>
-      <c r="Y14" s="2">
-        <v>0.58042246378409368</v>
-      </c>
-      <c r="Z14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="2">
-        <v>2.0156791798582843E-2</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="2">
-        <v>1.4285714285714285E-2</v>
-      </c>
-      <c r="AG14" s="2">
-        <v>1.282051282051282E-2</v>
-      </c>
-      <c r="AH14" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AI14" s="2">
-        <v>7.6864805692391888E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>43176</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0.40961601307189538</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0.49091130604288502</v>
-      </c>
-      <c r="R15" s="2">
-        <v>0.45994409288127452</v>
-      </c>
-      <c r="S15" s="2">
-        <v>0.52216138577507076</v>
-      </c>
-      <c r="T15" s="2">
-        <v>0.49521072796934862</v>
-      </c>
-      <c r="U15" s="2">
-        <v>0.74122767926947486</v>
-      </c>
-      <c r="V15" s="2">
-        <v>0.71535969423324552</v>
-      </c>
-      <c r="W15" s="2">
-        <v>0.31204481792717087</v>
-      </c>
-      <c r="X15" s="2">
-        <v>0.74887530651860301</v>
       </c>
       <c r="AJ15" s="2">
         <v>0</v>
       </c>
       <c r="AK15" s="2">
-        <v>3.3333333333333333E-2</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="2">
         <v>0</v>
@@ -17910,1718 +17434,2082 @@
         <v>0</v>
       </c>
       <c r="AP15" s="2">
-        <v>0.10051543158246906</v>
+        <v>0</v>
       </c>
       <c r="AQ15" s="2">
-        <v>2.032520325203252E-2</v>
+        <v>0</v>
+      </c>
+      <c r="AR15" s="4">
+        <v>43172</v>
+      </c>
+      <c r="AU15" s="4">
+        <v>43172</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43177</v>
+        <v>43173</v>
       </c>
       <c r="AR16" s="4">
-        <v>42812.333333333336</v>
+        <v>43173</v>
       </c>
       <c r="AS16" s="3">
-        <v>0.63945180273755031</v>
+        <v>0.48124429798328289</v>
       </c>
       <c r="AT16" s="3">
-        <v>4.4659481404887444E-2</v>
+        <v>3.5896994159357765E-2</v>
       </c>
       <c r="AU16" s="4">
-        <v>42812.6</v>
+        <v>43173</v>
       </c>
       <c r="AV16" s="3">
-        <v>4.4499433089820302E-2</v>
+        <v>1.2661181531674981E-2</v>
       </c>
       <c r="AW16" s="5">
-        <v>2.0299999999999999E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43178</v>
-      </c>
-      <c r="Y17" s="2">
-        <v>0.60583808089528912</v>
+        <v>43174</v>
       </c>
       <c r="AE17" s="2">
-        <v>0.12432747083073761</v>
+        <v>3.2031791099003594E-2</v>
+      </c>
+      <c r="AR17" s="4">
+        <v>43174</v>
+      </c>
+      <c r="AU17" s="4">
+        <v>43174</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43179</v>
+        <v>43175</v>
       </c>
       <c r="B18" s="2">
-        <v>0.34948039215686277</v>
+        <v>0.20677830940988837</v>
       </c>
       <c r="C18" s="2">
-        <v>0.7586666666666666</v>
+        <v>0.39708552042517881</v>
       </c>
       <c r="D18" s="2">
-        <v>0.71808968092839065</v>
+        <v>0.44482149429517853</v>
       </c>
       <c r="E18" s="2">
-        <v>0.69536102384823195</v>
+        <v>0.61009881422924894</v>
       </c>
       <c r="F18" s="2">
-        <v>0.69676799471032491</v>
+        <v>0.64429355474247108</v>
       </c>
       <c r="G18" s="2">
-        <v>0.85233067586008759</v>
+        <v>0.5853756047873695</v>
       </c>
       <c r="H18" s="2">
-        <v>0.76986960408013039</v>
+        <v>0.5731578947368422</v>
       </c>
       <c r="I18" s="2">
-        <v>0.86457575757575766</v>
+        <v>0.65667931688804559</v>
       </c>
       <c r="J18" s="2">
-        <v>0.64138626079802552</v>
+        <v>0.38480519480519482</v>
       </c>
       <c r="K18" s="2">
-        <v>0.84118907873570714</v>
+        <v>0.68679653679653674</v>
       </c>
       <c r="L18" s="2">
-        <v>0.77141800135348526</v>
+        <v>0.44550000000000001</v>
       </c>
       <c r="M18" s="2">
-        <v>0.80542016806722694</v>
+        <v>0.75317706029780329</v>
       </c>
       <c r="N18" s="2">
-        <v>0.57132867132867127</v>
+        <v>0.39516164994425862</v>
       </c>
       <c r="O18" s="2">
-        <v>0.70703054298642543</v>
-      </c>
-      <c r="P18" s="2">
-        <v>0.56692286546405535</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>0.67948757763975154</v>
-      </c>
-      <c r="R18" s="2">
-        <v>0.57258041558305739</v>
-      </c>
-      <c r="S18" s="2">
-        <v>0.44321839080459763</v>
-      </c>
-      <c r="T18" s="2">
-        <v>0.59102564102564092</v>
+        <v>0.62821909406806431</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>0.58042246378409368</v>
       </c>
       <c r="Z18" s="2">
-        <v>1.52073732718894E-2</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="2">
-        <v>9.2063492063492076E-3</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="2">
         <v>0</v>
       </c>
       <c r="AC18" s="2">
-        <v>0.11383149948367341</v>
+        <v>2.0156791798582843E-2</v>
       </c>
       <c r="AD18" s="2">
-        <v>2.1276595744680851E-2</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="2">
-        <v>4.3240727814230537E-2</v>
+        <v>1.4285714285714285E-2</v>
       </c>
       <c r="AG18" s="2">
+        <v>1.282051282051282E-2</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>7.6864805692391888E-2</v>
+      </c>
+      <c r="AR18" s="4">
+        <v>43175</v>
+      </c>
+      <c r="AU18" s="4">
+        <v>43175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43176</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.40961601307189538</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0.49091130604288502</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0.45994409288127452</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0.52216138577507076</v>
+      </c>
+      <c r="T19" s="2">
+        <v>0.49521072796934862</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0.74122767926947486</v>
+      </c>
+      <c r="V19" s="2">
+        <v>0.71535969423324552</v>
+      </c>
+      <c r="W19" s="2">
+        <v>0.31204481792717087</v>
+      </c>
+      <c r="X19" s="2">
+        <v>0.74887530651860301</v>
+      </c>
+      <c r="AJ19" s="2">
         <v>0</v>
       </c>
-      <c r="AH18" s="2">
-        <v>1.9047619047619046E-2</v>
-      </c>
-      <c r="AI18" s="2">
-        <v>6.1656025134286009E-2</v>
-      </c>
-      <c r="AJ18" s="2">
+      <c r="AK19" s="2">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="AL19" s="2">
         <v>0</v>
-      </c>
-      <c r="AK18" s="2">
-        <v>0.14522144522144523</v>
-      </c>
-      <c r="AL18" s="2">
-        <v>3.6274509803921572E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>43180</v>
-      </c>
-      <c r="U19" s="2">
-        <v>0.75211255411255418</v>
-      </c>
-      <c r="V19" s="2">
-        <v>0.68637806637806642</v>
-      </c>
-      <c r="W19" s="2">
-        <v>0.31306093794970324</v>
-      </c>
-      <c r="X19" s="2">
-        <v>0.75523809523809526</v>
       </c>
       <c r="AM19" s="2">
         <v>0</v>
       </c>
       <c r="AN19" s="2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="2">
         <v>0</v>
       </c>
       <c r="AP19" s="2">
+        <v>0.10051543158246906</v>
+      </c>
+      <c r="AQ19" s="2">
+        <v>2.032520325203252E-2</v>
+      </c>
+      <c r="AR19" s="4">
+        <v>43176</v>
+      </c>
+      <c r="AU19" s="4">
+        <v>43176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43177</v>
+      </c>
+      <c r="AR20" s="4">
+        <v>43177</v>
+      </c>
+      <c r="AS20" s="3">
+        <v>0.63945180273755031</v>
+      </c>
+      <c r="AT20" s="3">
+        <v>4.4659481404887444E-2</v>
+      </c>
+      <c r="AU20" s="4">
+        <v>43177</v>
+      </c>
+      <c r="AV20" s="3">
+        <v>4.4499433089820302E-2</v>
+      </c>
+      <c r="AW20" s="5">
+        <v>2.0299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43178</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>0.60583808089528912</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>0.12432747083073761</v>
+      </c>
+      <c r="AR21" s="4">
+        <v>43178</v>
+      </c>
+      <c r="AU21" s="4">
+        <v>43178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43179</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.34948039215686277</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.7586666666666666</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.71808968092839065</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.69536102384823195</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.69676799471032491</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.85233067586008759</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.76986960408013039</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.86457575757575766</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.64138626079802552</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.84118907873570714</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.77141800135348526</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.80542016806722694</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.57132867132867127</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.70703054298642543</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0.56692286546405535</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0.67948757763975154</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0.57258041558305739</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0.44321839080459763</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0.59102564102564092</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>1.52073732718894E-2</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>9.2063492063492076E-3</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>0.11383149948367341</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>2.1276595744680851E-2</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>4.3240727814230537E-2</v>
+      </c>
+      <c r="AG22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="2">
+        <v>1.9047619047619046E-2</v>
+      </c>
+      <c r="AI22" s="2">
+        <v>6.1656025134286009E-2</v>
+      </c>
+      <c r="AJ22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="2">
+        <v>0.14522144522144523</v>
+      </c>
+      <c r="AL22" s="2">
+        <v>3.6274509803921572E-2</v>
+      </c>
+      <c r="AR22" s="4">
+        <v>43179</v>
+      </c>
+      <c r="AU22" s="4">
+        <v>43179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43180</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0.75211255411255418</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0.68637806637806642</v>
+      </c>
+      <c r="W23" s="2">
+        <v>0.31306093794970324</v>
+      </c>
+      <c r="X23" s="2">
+        <v>0.75523809523809526</v>
+      </c>
+      <c r="AM23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AO23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="2">
         <v>0.29345415676000386</v>
       </c>
-      <c r="AQ19" s="2">
+      <c r="AQ23" s="2">
         <v>0.12192854789235592</v>
       </c>
+      <c r="AR23" s="4">
+        <v>43180</v>
+      </c>
+      <c r="AU23" s="4">
+        <v>43180</v>
+      </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>43181</v>
       </c>
-      <c r="AR20" s="4">
-        <v>42816</v>
-      </c>
-      <c r="AS20" s="3">
+      <c r="AR24" s="4">
+        <v>43181</v>
+      </c>
+      <c r="AS24" s="3">
         <v>0.66367183686564879</v>
       </c>
-      <c r="AT20" s="3">
+      <c r="AT24" s="3">
         <v>3.3654336367821197E-2</v>
       </c>
-      <c r="AU20" s="4">
-        <v>42816.800000000003</v>
-      </c>
-      <c r="AV20" s="3">
+      <c r="AU24" s="4">
+        <v>43181</v>
+      </c>
+      <c r="AV24" s="3">
         <v>0.11381637476978179</v>
       </c>
-      <c r="AW20" s="5">
+      <c r="AW24" s="5">
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>43182</v>
       </c>
-      <c r="P21" s="2">
+      <c r="P25" s="2">
         <v>0.66422889803694773</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q25" s="2">
         <v>0.67609307359307347</v>
       </c>
-      <c r="R21" s="2">
+      <c r="R25" s="2">
         <v>0.74844019138755979</v>
       </c>
-      <c r="S21" s="2">
+      <c r="S25" s="2">
         <v>0.48340350877192984</v>
       </c>
-      <c r="T21" s="2">
+      <c r="T25" s="2">
         <v>0.50445885956721859</v>
       </c>
-      <c r="Y21" s="2">
+      <c r="Y25" s="2">
         <v>0.6199746565292783</v>
       </c>
-      <c r="AJ21" s="2">
+      <c r="AJ25" s="2">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="AK21" s="2">
+      <c r="AK25" s="2">
         <v>0.27129629629629631</v>
       </c>
-      <c r="AL21" s="2">
+      <c r="AL25" s="2">
         <v>3.9351851851851853E-2</v>
       </c>
+      <c r="AR25" s="4">
+        <v>43182</v>
+      </c>
+      <c r="AU25" s="4">
+        <v>43182</v>
+      </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>43183</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B26" s="2">
         <v>0.45711111111111108</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C26" s="2">
         <v>0.68177540106951873</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D26" s="2">
         <v>0.67727610553697504</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E26" s="2">
         <v>0.71415596787113811</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F26" s="2">
         <v>0.7206879606879607</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G26" s="2">
         <v>0.8053854332801702</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H26" s="2">
         <v>0.77589285714285716</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I26" s="2">
         <v>0.70443850267379682</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J26" s="2">
         <v>0.71899766899766904</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K26" s="2">
         <v>0.86299283154121864</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L26" s="2">
         <v>0.83955877139937862</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M26" s="2">
         <v>0.7420164995822891</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N26" s="2">
         <v>0.67368032842571102</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O26" s="2">
         <v>0.76516752376499919</v>
       </c>
-      <c r="Z22" s="2">
+      <c r="Z26" s="2">
         <v>0.1999819004524887</v>
       </c>
-      <c r="AA22" s="2">
+      <c r="AA26" s="2">
         <v>0</v>
       </c>
-      <c r="AB22" s="2">
+      <c r="AB26" s="2">
         <v>0.01</v>
       </c>
-      <c r="AC22" s="2">
+      <c r="AC26" s="2">
         <v>0.20648986101617681</v>
       </c>
-      <c r="AD22" s="2">
+      <c r="AD26" s="2">
         <v>4.8809144072301969E-2</v>
       </c>
-      <c r="AF22" s="2">
+      <c r="AF26" s="2">
         <v>3.6578947368421051E-2</v>
       </c>
-      <c r="AG22" s="2">
+      <c r="AG26" s="2">
         <v>3.1994590939824208E-2</v>
       </c>
-      <c r="AH22" s="2">
+      <c r="AH26" s="2">
         <v>6.3504738858640858E-2</v>
       </c>
-      <c r="AI22" s="2">
+      <c r="AI26" s="2">
         <v>0.1138635477582846</v>
       </c>
+      <c r="AR26" s="4">
+        <v>43183</v>
+      </c>
+      <c r="AU26" s="4">
+        <v>43183</v>
+      </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>43184</v>
       </c>
-      <c r="AE23" s="2">
+      <c r="AE27" s="2">
         <v>0.26896504390382869</v>
       </c>
+      <c r="AR27" s="4">
+        <v>43184</v>
+      </c>
+      <c r="AU27" s="4">
+        <v>43184</v>
+      </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>43185</v>
       </c>
-      <c r="U24" s="2">
+      <c r="U28" s="2">
         <v>0.85763729246487874</v>
       </c>
-      <c r="V24" s="2">
+      <c r="V28" s="2">
         <v>0.71152476393382247</v>
       </c>
-      <c r="W24" s="2">
+      <c r="W28" s="2">
         <v>0.40808354218880538</v>
       </c>
-      <c r="X24" s="2">
+      <c r="X28" s="2">
         <v>0.84611388611388594</v>
-      </c>
-      <c r="AM24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN24" s="2">
-        <v>0.11775362318840581</v>
-      </c>
-      <c r="AO24" s="2">
-        <v>8.410084033613445E-2</v>
-      </c>
-      <c r="AP24" s="2">
-        <v>0.44904711914655782</v>
-      </c>
-      <c r="AQ24" s="2">
-        <v>0.16147269495095581</v>
-      </c>
-      <c r="AR24" s="4">
-        <v>42820.166666666664</v>
-      </c>
-      <c r="AS24" s="3">
-        <v>0.73705049382419929</v>
-      </c>
-      <c r="AT24" s="3">
-        <v>4.3446843646478418E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>43186</v>
-      </c>
-      <c r="AR25" s="4"/>
-      <c r="AU25" s="4">
-        <v>42821.2</v>
-      </c>
-      <c r="AV25" s="3">
-        <v>0.19669873301746937</v>
-      </c>
-      <c r="AW25" s="5">
-        <v>5.6500000000000002E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>43187</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.81580578898225953</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.85263929618768319</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.69497009614656668</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0.8195456830750949</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0.74558213716108457</v>
-      </c>
-      <c r="L26" s="2">
-        <v>0.95360186303260319</v>
-      </c>
-      <c r="M26" s="2">
-        <v>0.84197348209232759</v>
-      </c>
-      <c r="N26" s="2">
-        <v>0.78562851293247393</v>
-      </c>
-      <c r="O26" s="2">
-        <v>0.85570412517780947</v>
-      </c>
-      <c r="P26" s="2">
-        <v>0.83293650793650786</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>0.80773109243697494</v>
-      </c>
-      <c r="R26" s="2">
-        <v>0.81244264507422415</v>
-      </c>
-      <c r="S26" s="2">
-        <v>0.79662835249042141</v>
-      </c>
-      <c r="T26" s="2">
-        <v>0.54378787878787871</v>
-      </c>
-      <c r="Y26" s="2">
-        <v>0.70643939393939403</v>
-      </c>
-      <c r="AF26" s="2">
-        <v>4.4695969313965918E-2</v>
-      </c>
-      <c r="AG26" s="2">
-        <v>8.6804265565875463E-2</v>
-      </c>
-      <c r="AH26" s="2">
-        <v>0.14234044882320745</v>
-      </c>
-      <c r="AI26" s="2">
-        <v>0.18954997998476258</v>
-      </c>
-      <c r="AJ26" s="2">
-        <v>0.28928571428571431</v>
-      </c>
-      <c r="AK26" s="2">
-        <v>9.6525627794977642E-2</v>
-      </c>
-      <c r="AL26" s="2">
-        <v>5.4994388327721661E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>43188</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0.88231942349589421</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0.78845841784989845</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0.8647464114832536</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0.78000321659764382</v>
-      </c>
-      <c r="K27" s="2">
-        <v>0.86561219482272134</v>
-      </c>
-      <c r="Z27" s="2">
-        <v>0.20160321125457753</v>
-      </c>
-      <c r="AA27" s="2">
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="AB27" s="2">
-        <v>0.32311193066568322</v>
-      </c>
-      <c r="AC27" s="2">
-        <v>0.26776182881446042</v>
-      </c>
-      <c r="AD27" s="2">
-        <v>8.8859948368061964E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>43189</v>
-      </c>
-      <c r="U28" s="2">
-        <v>0.8629658119658119</v>
-      </c>
-      <c r="V28" s="2">
-        <v>0.74722222222222223</v>
-      </c>
-      <c r="W28" s="2">
-        <v>0.48959818902093949</v>
-      </c>
-      <c r="X28" s="2">
-        <v>0.90097704038880499</v>
-      </c>
-      <c r="AE28" s="2">
-        <v>0.41669696969696979</v>
       </c>
       <c r="AM28" s="2">
         <v>0</v>
       </c>
       <c r="AN28" s="2">
+        <v>0.11775362318840581</v>
+      </c>
+      <c r="AO28" s="2">
+        <v>8.410084033613445E-2</v>
+      </c>
+      <c r="AP28" s="2">
+        <v>0.44904711914655782</v>
+      </c>
+      <c r="AQ28" s="2">
+        <v>0.16147269495095581</v>
+      </c>
+      <c r="AR28" s="4">
+        <v>43185</v>
+      </c>
+      <c r="AS28" s="3">
+        <v>0.73705049382419929</v>
+      </c>
+      <c r="AT28" s="3">
+        <v>4.3446843646478418E-2</v>
+      </c>
+      <c r="AU28" s="4">
+        <v>43185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43186</v>
+      </c>
+      <c r="AR29" s="4">
+        <v>43186</v>
+      </c>
+      <c r="AU29" s="4">
+        <v>43186</v>
+      </c>
+      <c r="AV29" s="3">
+        <v>0.19669873301746937</v>
+      </c>
+      <c r="AW29" s="5">
+        <v>5.6500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43187</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.81580578898225953</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.85263929618768319</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.69497009614656668</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.8195456830750949</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.74558213716108457</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.95360186303260319</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0.84197348209232759</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0.78562851293247393</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0.85570412517780947</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0.83293650793650786</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0.80773109243697494</v>
+      </c>
+      <c r="R30" s="2">
+        <v>0.81244264507422415</v>
+      </c>
+      <c r="S30" s="2">
+        <v>0.79662835249042141</v>
+      </c>
+      <c r="T30" s="2">
+        <v>0.54378787878787871</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>0.70643939393939403</v>
+      </c>
+      <c r="AF30" s="2">
+        <v>4.4695969313965918E-2</v>
+      </c>
+      <c r="AG30" s="2">
+        <v>8.6804265565875463E-2</v>
+      </c>
+      <c r="AH30" s="2">
+        <v>0.14234044882320745</v>
+      </c>
+      <c r="AI30" s="2">
+        <v>0.18954997998476258</v>
+      </c>
+      <c r="AJ30" s="2">
+        <v>0.28928571428571431</v>
+      </c>
+      <c r="AK30" s="2">
+        <v>9.6525627794977642E-2</v>
+      </c>
+      <c r="AL30" s="2">
+        <v>5.4994388327721661E-2</v>
+      </c>
+      <c r="AR30" s="4">
+        <v>43187</v>
+      </c>
+      <c r="AU30" s="4">
+        <v>43187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43188</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.88231942349589421</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.78845841784989845</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.8647464114832536</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.78000321659764382</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.86561219482272134</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>0.20160321125457753</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>0.32311193066568322</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>0.26776182881446042</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>8.8859948368061964E-2</v>
+      </c>
+      <c r="AR31" s="4">
+        <v>43188</v>
+      </c>
+      <c r="AU31" s="4">
+        <v>43188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43189</v>
+      </c>
+      <c r="U32" s="2">
+        <v>0.8629658119658119</v>
+      </c>
+      <c r="V32" s="2">
+        <v>0.74722222222222223</v>
+      </c>
+      <c r="W32" s="2">
+        <v>0.48959818902093949</v>
+      </c>
+      <c r="X32" s="2">
+        <v>0.90097704038880499</v>
+      </c>
+      <c r="AE32" s="2">
+        <v>0.41669696969696979</v>
+      </c>
+      <c r="AM32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="2">
         <v>6.9871794871794887E-2</v>
       </c>
-      <c r="AO28" s="2">
+      <c r="AO32" s="2">
         <v>0.17629629629629631</v>
       </c>
-      <c r="AP28" s="2">
+      <c r="AP32" s="2">
         <v>0.4703940513403429</v>
       </c>
-      <c r="AQ28" s="2">
+      <c r="AQ32" s="2">
         <v>0.41461448493027431</v>
       </c>
-      <c r="AR28" s="4">
-        <v>42824.333333333336</v>
-      </c>
-      <c r="AS28" s="3">
+      <c r="AR32" s="4">
+        <v>43189</v>
+      </c>
+      <c r="AS32" s="3">
         <v>0.82108414507172878</v>
       </c>
-      <c r="AT28" s="3">
+      <c r="AT32" s="3">
         <v>3.7936750810317589E-2</v>
       </c>
+      <c r="AU32" s="4">
+        <v>43189</v>
+      </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>43190</v>
       </c>
-      <c r="AR29" s="4"/>
-      <c r="AU29" s="4">
-        <v>42825.2</v>
-      </c>
-      <c r="AV29" s="3">
+      <c r="AR33" s="4">
+        <v>43190</v>
+      </c>
+      <c r="AU33" s="4">
+        <v>43190</v>
+      </c>
+      <c r="AV33" s="3">
         <v>0.30796981952545532</v>
       </c>
-      <c r="AW29" s="5">
+      <c r="AW33" s="5">
         <v>9.9599999999999994E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>43191</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B34" s="2">
         <v>0.96961122613296524</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C34" s="2">
         <v>0.96961122613296524</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D34" s="2">
         <v>0.93329501915708823</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E34" s="2">
         <v>0.89740740740740732</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F34" s="2">
         <v>0.8503577441077439</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G34" s="2">
         <v>0.95547785547785546</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H34" s="2">
         <v>0.85734956051386069</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I34" s="2">
         <v>0.89139689578713965</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J34" s="2">
         <v>0.83018174354381247</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K34" s="2">
         <v>0.92354269771149566</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L34" s="2">
         <v>0.92893665158371042</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M34" s="2">
         <v>0.89972252148722731</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N34" s="2">
         <v>0.8507679169228668</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O34" s="2">
         <v>0.90266527021365728</v>
       </c>
-      <c r="P30" s="2">
+      <c r="P34" s="2">
         <v>0.91738892686261109</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="Q34" s="2">
         <v>0.92946859903381651</v>
       </c>
-      <c r="R30" s="2">
+      <c r="R34" s="2">
         <v>0.86547585654177528</v>
       </c>
-      <c r="S30" s="2">
+      <c r="S34" s="2">
         <v>0.77619047619047621</v>
       </c>
-      <c r="T30" s="2">
+      <c r="T34" s="2">
         <v>0.64260073260073258</v>
       </c>
-      <c r="Y30" s="2">
+      <c r="Y34" s="2">
         <v>0.81069703243616298</v>
       </c>
-      <c r="Z30" s="2">
+      <c r="Z34" s="2">
         <v>0.23849278368334631</v>
       </c>
-      <c r="AA30" s="2">
+      <c r="AA34" s="2">
         <v>3.8641588296760711E-2</v>
       </c>
-      <c r="AB30" s="2">
+      <c r="AB34" s="2">
         <v>0.357804071820299</v>
       </c>
-      <c r="AC30" s="2">
+      <c r="AC34" s="2">
         <v>0.31490989138047965</v>
       </c>
-      <c r="AD30" s="2">
+      <c r="AD34" s="2">
         <v>0.16876750700280113</v>
       </c>
-      <c r="AF30" s="2">
+      <c r="AF34" s="2">
         <v>0.20152036199095019</v>
       </c>
-      <c r="AG30" s="2">
+      <c r="AG34" s="2">
         <v>0.18224561403508771</v>
       </c>
-      <c r="AH30" s="2">
+      <c r="AH34" s="2">
         <v>0.24346932760725865</v>
       </c>
-      <c r="AI30" s="2">
+      <c r="AI34" s="2">
         <v>0.34069487444100444</v>
       </c>
-      <c r="AJ30" s="2">
+      <c r="AJ34" s="2">
         <v>0.27361111111111108</v>
       </c>
-      <c r="AK30" s="2">
+      <c r="AK34" s="2">
         <v>0.16490299823633156</v>
       </c>
-      <c r="AL30" s="2">
+      <c r="AL34" s="2">
         <v>0.16347826086956521</v>
       </c>
+      <c r="AR34" s="4">
+        <v>43191</v>
+      </c>
+      <c r="AU34" s="4">
+        <v>43191</v>
+      </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>44653</v>
+      </c>
+      <c r="AR35" s="4">
+        <v>44653</v>
+      </c>
+      <c r="AU35" s="4">
+        <v>44653</v>
+      </c>
+    </row>
+    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>43193</v>
       </c>
-      <c r="U31" s="2">
+      <c r="U36" s="2">
         <v>0.93710792131844767</v>
       </c>
-      <c r="V31" s="2">
+      <c r="V36" s="2">
         <v>0.91789321789321787</v>
       </c>
-      <c r="W31" s="2">
+      <c r="W36" s="2">
         <v>0.70981295066752337</v>
       </c>
-      <c r="X31" s="2">
+      <c r="X36" s="2">
         <v>0.92072727272727273</v>
       </c>
-      <c r="AE31" s="2">
+      <c r="AE36" s="2">
         <v>0.70097281571475123</v>
       </c>
-      <c r="AM31" s="2">
+      <c r="AM36" s="2">
         <v>8.4958133971291858E-2</v>
       </c>
-      <c r="AN31" s="2">
+      <c r="AN36" s="2">
         <v>0.54690124489037528</v>
       </c>
-      <c r="AO31" s="2">
+      <c r="AO36" s="2">
         <v>0.39645973909131804</v>
       </c>
-      <c r="AP31" s="2">
+      <c r="AP36" s="2">
         <v>0.4967213488266119</v>
       </c>
-      <c r="AQ31" s="2">
+      <c r="AQ36" s="2">
         <v>0.54138241602531134</v>
       </c>
-      <c r="AR31" s="4">
-        <v>42828.5</v>
-      </c>
-      <c r="AS31" s="3">
+      <c r="AR36" s="4">
+        <v>43193</v>
+      </c>
+      <c r="AS36" s="3">
         <v>0.88171990074690854</v>
       </c>
-      <c r="AT31" s="3">
+      <c r="AT36" s="3">
         <v>2.3611134878905957E-2</v>
       </c>
+      <c r="AU36" s="4">
+        <v>43193</v>
+      </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>43194</v>
       </c>
-      <c r="AR32" s="4"/>
-      <c r="AU32" s="4">
-        <v>42829.2</v>
-      </c>
-      <c r="AV32" s="3">
+      <c r="AR37" s="4">
+        <v>43194</v>
+      </c>
+      <c r="AU37" s="4">
+        <v>43194</v>
+      </c>
+      <c r="AV37" s="3">
         <v>0.43843378251642379</v>
       </c>
-      <c r="AW32" s="5">
+      <c r="AW37" s="5">
         <v>9.7799999999999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>43195</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B38" s="2">
         <v>0.98047619047619039</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C38" s="2">
         <v>0.96019923371647509</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D38" s="2">
         <v>0.94136752136752122</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E38" s="2">
         <v>0.95527007737961078</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F38" s="2">
         <v>0.96735791090629797</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L38" s="2">
         <v>0.95628987240829344</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M38" s="2">
         <v>0.94166056166056167</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N38" s="2">
         <v>0.88513640507376246</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O38" s="2">
         <v>0.92587301587301596</v>
       </c>
-      <c r="P33" s="2">
+      <c r="P38" s="2">
         <v>0.90511695906432743</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="Q38" s="2">
         <v>0.94216652742968532</v>
       </c>
-      <c r="R33" s="2">
+      <c r="R38" s="2">
         <v>0.82440667884101759</v>
       </c>
-      <c r="S33" s="2">
+      <c r="S38" s="2">
         <v>0.80692583278790164</v>
       </c>
-      <c r="T33" s="2">
+      <c r="T38" s="2">
         <v>0.75488095238095232</v>
       </c>
-      <c r="Y33" s="2">
+      <c r="Y38" s="2">
         <v>0.93839711560299788</v>
       </c>
-      <c r="AF33" s="2">
+      <c r="AF38" s="2">
         <v>0.29439176144766205</v>
       </c>
-      <c r="AG33" s="2">
+      <c r="AG38" s="2">
         <v>0.28214379084967323</v>
       </c>
-      <c r="AH33" s="2">
+      <c r="AH38" s="2">
         <v>0.35114623243933585</v>
       </c>
-      <c r="AI33" s="2">
+      <c r="AI38" s="2">
         <v>0.4782549019607843</v>
       </c>
-      <c r="AJ33" s="2">
+      <c r="AJ38" s="2">
         <v>0.40681475387357741</v>
       </c>
-      <c r="AK33" s="2">
+      <c r="AK38" s="2">
         <v>0.43622655122655124</v>
       </c>
-      <c r="AL33" s="2">
+      <c r="AL38" s="2">
         <v>0.40251131221719455</v>
       </c>
+      <c r="AR38" s="4">
+        <v>43195</v>
+      </c>
+      <c r="AU38" s="4">
+        <v>43195</v>
+      </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>43196</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G39" s="2">
         <v>0.92756613756613748</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H39" s="2">
         <v>0.91714285714285704</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I39" s="2">
         <v>0.87187165775401065</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J39" s="2">
         <v>0.79686036838978003</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K39" s="2">
         <v>0.95574879227053144</v>
       </c>
-      <c r="U34" s="2">
+      <c r="U39" s="2">
         <v>0.84852669921723634</v>
       </c>
-      <c r="V34" s="2">
+      <c r="V39" s="2">
         <v>0.97416666666666674</v>
       </c>
-      <c r="W34" s="2">
+      <c r="W39" s="2">
         <v>0.73089743589743583</v>
       </c>
-      <c r="X34" s="2">
+      <c r="X39" s="2">
         <v>0.93474999999999997</v>
       </c>
-      <c r="Z34" s="2">
+      <c r="Z39" s="2">
         <v>0.29458905885403164</v>
       </c>
-      <c r="AA34" s="2">
+      <c r="AA39" s="2">
         <v>0.48436802660940598</v>
       </c>
-      <c r="AB34" s="2">
+      <c r="AB39" s="2">
         <v>0.59833333333333338</v>
       </c>
-      <c r="AC34" s="2">
+      <c r="AC39" s="2">
         <v>0.42991718426501035</v>
       </c>
-      <c r="AD34" s="2">
+      <c r="AD39" s="2">
         <v>0.35502645502645502</v>
       </c>
-      <c r="AE34" s="2">
+      <c r="AE39" s="2">
         <v>0.7942892293234568</v>
       </c>
-      <c r="AM34" s="2">
+      <c r="AM39" s="2">
         <v>0.38275362318840578</v>
       </c>
-      <c r="AN34" s="2">
+      <c r="AN39" s="2">
         <v>0.51232273473652779</v>
       </c>
-      <c r="AO34" s="2">
+      <c r="AO39" s="2">
         <v>0.54653221288515408</v>
       </c>
-      <c r="AP34" s="2">
+      <c r="AP39" s="2">
         <v>0.51693523867436908</v>
       </c>
-      <c r="AQ34" s="2">
+      <c r="AQ39" s="2">
         <v>0.75235540631035458</v>
       </c>
+      <c r="AR39" s="4">
+        <v>43196</v>
+      </c>
+      <c r="AU39" s="4">
+        <v>43196</v>
+      </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>43197</v>
       </c>
-      <c r="AR35" s="4">
-        <v>42832</v>
-      </c>
-      <c r="AS35" s="3">
+      <c r="AR40" s="4">
+        <v>43197</v>
+      </c>
+      <c r="AS40" s="3">
         <v>0.91548174036045893</v>
       </c>
-      <c r="AT35" s="3">
+      <c r="AT40" s="3">
         <v>1.8383633448137378E-2</v>
       </c>
-      <c r="AU35" s="4">
-        <v>42832.4</v>
-      </c>
-      <c r="AV35" s="3">
+      <c r="AU40" s="4">
+        <v>43197</v>
+      </c>
+      <c r="AV40" s="3">
         <v>0.56619996792732574</v>
       </c>
-      <c r="AW35" s="5">
+      <c r="AW40" s="5">
         <v>5.3199999999999997E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>43198</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B41" s="2">
         <v>0.96300257476728068</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C41" s="2">
         <v>0.95487329434697854</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D41" s="2">
         <v>0.94596498131024975</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E41" s="2">
         <v>0.97032967032967044</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F41" s="2">
         <v>0.96664160401002497</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L41" s="2">
         <v>0.94952380952380955</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M41" s="2">
         <v>0.95001741553465691</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N41" s="2">
         <v>0.89532322371197048</v>
       </c>
-      <c r="O36" s="2">
+      <c r="O41" s="2">
         <v>0.94766051317775468</v>
       </c>
-      <c r="P36" s="2">
+      <c r="P41" s="2">
         <v>0.93520283479960897</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="Q41" s="2">
         <v>0.91900584795321616</v>
       </c>
-      <c r="R36" s="2">
+      <c r="R41" s="2">
         <v>0.94380952380952365</v>
       </c>
-      <c r="S36" s="2">
+      <c r="S41" s="2">
         <v>0.90177224736048278</v>
       </c>
-      <c r="T36" s="2">
+      <c r="T41" s="2">
         <v>0.93969155844155838</v>
       </c>
-      <c r="Y36" s="2">
+      <c r="Y41" s="2">
         <v>0.91142883079157588</v>
       </c>
-      <c r="AE36" s="2">
+      <c r="AE41" s="2">
         <v>0.72572934282493096</v>
       </c>
-      <c r="AF36" s="2">
+      <c r="AF41" s="2">
         <v>0.70307692307692304</v>
       </c>
-      <c r="AG36" s="2">
+      <c r="AG41" s="2">
         <v>0.38312260536398463</v>
       </c>
-      <c r="AH36" s="2">
+      <c r="AH41" s="2">
         <v>0.78873417259624146</v>
       </c>
-      <c r="AI36" s="2">
+      <c r="AI41" s="2">
         <v>0.66892230576441092</v>
       </c>
-      <c r="AJ36" s="2">
+      <c r="AJ41" s="2">
         <v>0.52782445141065826</v>
       </c>
-      <c r="AK36" s="2">
+      <c r="AK41" s="2">
         <v>0.54353439153439154</v>
       </c>
-      <c r="AL36" s="2">
+      <c r="AL41" s="2">
         <v>0.52825311942958997</v>
       </c>
+      <c r="AR41" s="4">
+        <v>43198</v>
+      </c>
+      <c r="AU41" s="4">
+        <v>43198</v>
+      </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>43199</v>
       </c>
-      <c r="U37" s="2">
+      <c r="U42" s="2">
         <v>0.9342987593761588</v>
       </c>
-      <c r="V37" s="2">
+      <c r="V42" s="2">
         <v>0.94463768115942026</v>
       </c>
-      <c r="W37" s="2">
+      <c r="W42" s="2">
         <v>0.81013687600644113</v>
       </c>
-      <c r="X37" s="2">
+      <c r="X42" s="2">
         <v>0.88734962406015039</v>
       </c>
-      <c r="AM37" s="2">
+      <c r="AM42" s="2">
         <v>0.43678787878787873</v>
       </c>
-      <c r="AN37" s="2">
+      <c r="AN42" s="2">
         <v>0.59517543859649125</v>
       </c>
-      <c r="AO37" s="2">
+      <c r="AO42" s="2">
         <v>0.79113725490196074</v>
       </c>
-      <c r="AP37" s="2">
+      <c r="AP42" s="2">
         <v>0.61196069725481483</v>
       </c>
-      <c r="AQ37" s="2">
+      <c r="AQ42" s="2">
         <v>0.78402267272956938</v>
       </c>
+      <c r="AR42" s="4">
+        <v>43199</v>
+      </c>
+      <c r="AU42" s="4">
+        <v>43199</v>
+      </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>43200</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G43" s="2">
         <v>0.93744957983193289</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H43" s="2">
         <v>0.91980994152046791</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I43" s="2">
         <v>0.97388888888888892</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J43" s="2">
         <v>0.90266837169650471</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K43" s="2">
         <v>0.96575857093098472</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="Z43" s="2">
         <v>0.39754515599343188</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AA43" s="2">
         <v>0.56700640490114174</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AB43" s="2">
         <v>0.63658303901270652</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AC43" s="2">
         <v>0.51549350923164972</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AD43" s="2">
         <v>0.44308412176059236</v>
       </c>
-      <c r="AR38" s="4">
-        <v>42835</v>
-      </c>
-      <c r="AS38" s="3">
+      <c r="AR43" s="4">
+        <v>43200</v>
+      </c>
+      <c r="AS43" s="3">
         <v>0.92546329025950758</v>
       </c>
-      <c r="AT38" s="3">
+      <c r="AT43" s="3">
         <v>8.0855269279689022E-3</v>
       </c>
-      <c r="AU38" s="4">
-        <v>42835.6</v>
-      </c>
-      <c r="AV38" s="3">
+      <c r="AU43" s="4">
+        <v>43200</v>
+      </c>
+      <c r="AV43" s="3">
         <v>0.70643594888934858</v>
       </c>
-      <c r="AW38" s="5">
+      <c r="AW43" s="5">
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>43201</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B44" s="2">
         <v>0.92836580086580089</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C44" s="2">
         <v>0.95666165413533832</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D44" s="2">
         <v>0.96296296296296302</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E44" s="2">
         <v>0.93324712643678165</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F44" s="2">
         <v>0.96802507836990581</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L44" s="2">
         <v>0.96537878787878795</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M44" s="2">
         <v>0.94384615384615389</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N44" s="2">
         <v>0.89550497866287349</v>
       </c>
-      <c r="O39" s="2">
+      <c r="O44" s="2">
         <v>0.94218166032191275</v>
       </c>
-      <c r="AF39" s="2">
+      <c r="AF44" s="2">
         <v>0.77281431334622819</v>
       </c>
-      <c r="AG39" s="2">
+      <c r="AG44" s="2">
         <v>0.75320273928969583</v>
       </c>
-      <c r="AH39" s="2">
+      <c r="AH44" s="2">
         <v>0.83876496797549438</v>
       </c>
-      <c r="AI39" s="2">
+      <c r="AI44" s="2">
         <v>0.75488721804511272</v>
       </c>
+      <c r="AR44" s="4">
+        <v>43201</v>
+      </c>
+      <c r="AU44" s="4">
+        <v>43201</v>
+      </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>43202</v>
       </c>
-      <c r="P40" s="2">
+      <c r="P45" s="2">
         <v>0.95714285714285707</v>
       </c>
-      <c r="Q40" s="2">
+      <c r="Q45" s="2">
         <v>0.9226912389669828</v>
       </c>
-      <c r="R40" s="2">
+      <c r="R45" s="2">
         <v>0.94459259259259265</v>
       </c>
-      <c r="S40" s="2">
+      <c r="S45" s="2">
         <v>0.88977777777777778</v>
       </c>
-      <c r="T40" s="2">
+      <c r="T45" s="2">
         <v>0.94180596844655307</v>
       </c>
-      <c r="U40" s="2">
+      <c r="U45" s="2">
         <v>0.95609243697478985</v>
       </c>
-      <c r="V40" s="2">
+      <c r="V45" s="2">
         <v>0.87140786749482402</v>
       </c>
-      <c r="W40" s="2">
+      <c r="W45" s="2">
         <v>0.94294486215538842</v>
       </c>
-      <c r="X40" s="2">
+      <c r="X45" s="2">
         <v>0.95601173020527863</v>
       </c>
-      <c r="Y40" s="2">
+      <c r="Y45" s="2">
         <v>0.93980162168522619</v>
       </c>
-      <c r="AE40" s="2">
+      <c r="AE45" s="2">
         <v>0.85930340162820973</v>
       </c>
-      <c r="AJ40" s="2">
+      <c r="AJ45" s="2">
         <v>0.5608974358974359</v>
       </c>
-      <c r="AK40" s="2">
+      <c r="AK45" s="2">
         <v>0.66751851851851851</v>
       </c>
-      <c r="AL40" s="2">
+      <c r="AL45" s="2">
         <v>0.57076315789473686</v>
       </c>
-      <c r="AM40" s="2">
+      <c r="AM45" s="2">
         <v>0.6313333333333333</v>
       </c>
-      <c r="AN40" s="2">
+      <c r="AN45" s="2">
         <v>0.87863247863247873</v>
       </c>
-      <c r="AO40" s="2">
+      <c r="AO45" s="2">
         <v>0.81450877192982463</v>
       </c>
-      <c r="AP40" s="2">
+      <c r="AP45" s="2">
         <v>0.63325831820931633</v>
       </c>
-      <c r="AQ40" s="2">
+      <c r="AQ45" s="2">
         <v>0.82655696529053968</v>
       </c>
+      <c r="AR45" s="4">
+        <v>43202</v>
+      </c>
+      <c r="AU45" s="4">
+        <v>43202</v>
+      </c>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>43203</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G46" s="2">
         <v>0.94333333333333336</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H46" s="2">
         <v>0.92433333333333323</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I46" s="2">
         <v>0.93181818181818188</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J46" s="2">
         <v>0.90780680201732833</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K46" s="2">
         <v>0.95655011655011657</v>
       </c>
-      <c r="Z41" s="2">
+      <c r="Z46" s="2">
         <v>0.78131679109939989</v>
       </c>
-      <c r="AA41" s="2">
+      <c r="AA46" s="2">
         <v>0.68562091503267975</v>
       </c>
-      <c r="AB41" s="2">
+      <c r="AB46" s="2">
         <v>0.73622134038800702</v>
       </c>
-      <c r="AC41" s="2">
+      <c r="AC46" s="2">
         <v>0.70819890635680116</v>
       </c>
-      <c r="AD41" s="2">
+      <c r="AD46" s="2">
         <v>0.66833333333333322</v>
       </c>
-      <c r="AR41" s="4">
-        <v>42838.333333333336</v>
-      </c>
-      <c r="AS41" s="3">
+      <c r="AR46" s="4">
+        <v>43203</v>
+      </c>
+      <c r="AS46" s="3">
         <v>0.93880297753472586</v>
       </c>
-      <c r="AT41" s="3">
+      <c r="AT46" s="3">
         <v>4.3552159472203455E-3</v>
       </c>
-      <c r="AU41" s="4">
-        <v>42838.6</v>
-      </c>
-      <c r="AV41" s="3">
+      <c r="AU46" s="4">
+        <v>43203</v>
+      </c>
+      <c r="AV46" s="3">
         <v>0.76478248273965188</v>
       </c>
-      <c r="AW41" s="5">
+      <c r="AW46" s="5">
         <v>4.3799999999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>43204</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B47" s="2">
         <v>0.9438253562294483</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C47" s="2">
         <v>0.96971428571428575</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D47" s="2">
         <v>0.92916666666666659</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E47" s="2">
         <v>0.89338217338217341</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F47" s="2">
         <v>0.91784586205638841</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L47" s="2">
         <v>0.94251646903820807</v>
       </c>
-      <c r="M42" s="2">
+      <c r="M47" s="2">
         <v>0.93066724941724943</v>
       </c>
-      <c r="N42" s="2">
+      <c r="N47" s="2">
         <v>0.96590909090909105</v>
       </c>
-      <c r="O42" s="2">
+      <c r="O47" s="2">
         <v>0.92434346736406225</v>
       </c>
-      <c r="AE42" s="2">
+      <c r="AE47" s="2">
         <v>0.84674470348472164</v>
       </c>
-      <c r="AF42" s="2">
+      <c r="AF47" s="2">
         <v>0.8361436199193637</v>
       </c>
-      <c r="AG42" s="2">
+      <c r="AG47" s="2">
         <v>0.78187878787878784</v>
       </c>
-      <c r="AH42" s="2">
+      <c r="AH47" s="2">
         <v>0.82504761904761925</v>
       </c>
-      <c r="AI42" s="2">
+      <c r="AI47" s="2">
         <v>0.83281423804226917</v>
       </c>
+      <c r="AR47" s="4">
+        <v>43204</v>
+      </c>
+      <c r="AU47" s="4">
+        <v>43204</v>
+      </c>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>43205</v>
       </c>
-      <c r="P43" s="2">
+      <c r="P48" s="2">
         <v>0.93765826330532209</v>
       </c>
-      <c r="Q43" s="2">
+      <c r="Q48" s="2">
         <v>0.96660772178013565</v>
       </c>
-      <c r="R43" s="2">
+      <c r="R48" s="2">
         <v>0.91248028931852465</v>
       </c>
-      <c r="S43" s="2">
+      <c r="S48" s="2">
         <v>0.94984326018808785</v>
       </c>
-      <c r="T43" s="2">
+      <c r="T48" s="2">
         <v>0.85804718693284932</v>
       </c>
-      <c r="U43" s="2">
+      <c r="U48" s="2">
         <v>0.93697338830584709</v>
       </c>
-      <c r="V43" s="2">
+      <c r="V48" s="2">
         <v>0.90813184239798606</v>
       </c>
-      <c r="W43" s="2">
+      <c r="W48" s="2">
         <v>0.9192397660818713</v>
       </c>
-      <c r="X43" s="2">
+      <c r="X48" s="2">
         <v>0.95483870967741935</v>
       </c>
-      <c r="Y43" s="2">
+      <c r="Y48" s="2">
         <v>0.95452539859102714</v>
       </c>
-      <c r="AJ43" s="2">
+      <c r="AJ48" s="2">
         <v>0.65170940170940161</v>
       </c>
-      <c r="AK43" s="2">
+      <c r="AK48" s="2">
         <v>0.72175925925925932</v>
       </c>
-      <c r="AL43" s="2">
+      <c r="AL48" s="2">
         <v>0.69494949494949498</v>
       </c>
-      <c r="AM43" s="2">
+      <c r="AM48" s="2">
         <v>0.68500000000000005</v>
       </c>
-      <c r="AN43" s="2">
+      <c r="AN48" s="2">
         <v>0.8550679205851619</v>
       </c>
-      <c r="AO43" s="2">
+      <c r="AO48" s="2">
         <v>0.86550883016133362</v>
       </c>
-      <c r="AP43" s="2">
+      <c r="AP48" s="2">
         <v>0.76687511040452228</v>
       </c>
-      <c r="AQ43" s="2">
+      <c r="AQ48" s="2">
         <v>0.77356926799758019</v>
       </c>
+      <c r="AR48" s="4">
+        <v>43205</v>
+      </c>
+      <c r="AU48" s="4">
+        <v>43205</v>
+      </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>43206</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G49" s="2">
         <v>0.96060606060606057</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H49" s="2">
         <v>0.94451594451594434</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I49" s="2">
         <v>0.96331034482758626</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J49" s="2">
         <v>0.95313131313131305</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K49" s="2">
         <v>0.97120630861040058</v>
       </c>
-      <c r="Z44" s="2">
+      <c r="Z49" s="2">
         <v>0.85961794019933557</v>
       </c>
-      <c r="AA44" s="2">
+      <c r="AA49" s="2">
         <v>0.77345029239766083</v>
       </c>
-      <c r="AB44" s="2">
+      <c r="AB49" s="2">
         <v>0.71997335997335998</v>
       </c>
-      <c r="AC44" s="2">
+      <c r="AC49" s="2">
         <v>0.88591902800827749</v>
       </c>
-      <c r="AD44" s="2">
+      <c r="AD49" s="2">
         <v>0.7691008781323625</v>
       </c>
-      <c r="AR44" s="4">
-        <v>42841.333333333336</v>
-      </c>
-      <c r="AS44" s="3">
+      <c r="AR49" s="4">
+        <v>43206</v>
+      </c>
+      <c r="AS49" s="3">
         <v>0.94351302600986953</v>
       </c>
-      <c r="AT44" s="3">
+      <c r="AT49" s="3">
         <v>5.2888292581617638E-3</v>
       </c>
-      <c r="AU44" s="4">
-        <v>42841.8</v>
-      </c>
-      <c r="AV44" s="3">
+      <c r="AU49" s="4">
+        <v>43206</v>
+      </c>
+      <c r="AV49" s="3">
         <v>0.8088314914261362</v>
       </c>
-      <c r="AW44" s="5">
+      <c r="AW49" s="5">
         <v>3.3700000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+    <row r="50" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>43207</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B50" s="2">
         <v>0.95275910364145644</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C50" s="2">
         <v>0.93357142857142872</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D50" s="2">
         <v>0.95431034482758614</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E50" s="2">
         <v>0.97946428571428579</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F50" s="2">
         <v>0.95619047619047615</v>
       </c>
-      <c r="L45" s="2">
+      <c r="L50" s="2">
         <v>0.95285714285714285</v>
       </c>
-      <c r="M45" s="2">
+      <c r="M50" s="2">
         <v>0.96321428571428558</v>
       </c>
-      <c r="N45" s="2">
+      <c r="N50" s="2">
         <v>0.95485714285714285</v>
       </c>
-      <c r="O45" s="2">
+      <c r="O50" s="2">
         <v>0.9197223027141892</v>
       </c>
-      <c r="AF45" s="2">
+      <c r="AF50" s="2">
         <v>0.8320627186406796</v>
       </c>
-      <c r="AG45" s="2">
+      <c r="AG50" s="2">
         <v>0.80834800676905938</v>
       </c>
-      <c r="AH45" s="2">
+      <c r="AH50" s="2">
         <v>0.81427738927738924</v>
       </c>
-      <c r="AI45" s="2">
+      <c r="AI50" s="2">
         <v>0.86660734149054497</v>
       </c>
+      <c r="AR50" s="4">
+        <v>43207</v>
+      </c>
+      <c r="AU50" s="4">
+        <v>43207</v>
+      </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>43208</v>
       </c>
-      <c r="U46" s="2">
+      <c r="U51" s="2">
         <v>0.81381818181818166</v>
       </c>
-      <c r="V46" s="2">
+      <c r="V51" s="2">
         <v>0.952172096908939</v>
       </c>
-      <c r="W46" s="2">
+      <c r="W51" s="2">
         <v>0.86773053033922598</v>
       </c>
-      <c r="X46" s="2">
+      <c r="X51" s="2">
         <v>0.9029392446633826</v>
       </c>
-      <c r="AE46" s="2">
+      <c r="AE51" s="2">
         <v>0.8870831010776663</v>
       </c>
-      <c r="AM46" s="2">
+      <c r="AM51" s="2">
         <v>0.64825408001609364</v>
       </c>
-      <c r="AN46" s="2">
+      <c r="AN51" s="2">
         <v>0.84281371878895095</v>
       </c>
-      <c r="AO46" s="2">
+      <c r="AO51" s="2">
         <v>0.86065182186234812</v>
       </c>
-      <c r="AP46" s="2">
+      <c r="AP51" s="2">
         <v>0.82189657189657195</v>
       </c>
-      <c r="AQ46" s="2">
+      <c r="AQ51" s="2">
         <v>0.87681818181818172</v>
       </c>
+      <c r="AR51" s="4">
+        <v>43208</v>
+      </c>
+      <c r="AU51" s="4">
+        <v>43208</v>
+      </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>43209</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B52" s="2">
         <v>0.96561403508771926</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C52" s="2">
         <v>0.95847662141779788</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D52" s="2">
         <v>0.95768500948766599</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E52" s="2">
         <v>0.96356862745098049</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F52" s="2">
         <v>0.96722222222222221</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G52" s="2">
         <v>0.94299758454106275</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H52" s="2">
         <v>0.92741379310344829</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I52" s="2">
         <v>0.94927777777777789</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J52" s="2">
         <v>0.97599999999999998</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K52" s="2">
         <v>0.94884904569115103</v>
       </c>
-      <c r="L47" s="2">
+      <c r="L52" s="2">
         <v>0.95172540045766585</v>
       </c>
-      <c r="M47" s="2">
+      <c r="M52" s="2">
         <v>0.91330314898678755</v>
       </c>
-      <c r="N47" s="2">
+      <c r="N52" s="2">
         <v>0.91954786155873103</v>
       </c>
-      <c r="O47" s="2">
+      <c r="O52" s="2">
         <v>0.90571587478150339</v>
       </c>
-      <c r="P47" s="2">
+      <c r="P52" s="2">
         <v>0.9686147186147186</v>
       </c>
-      <c r="Q47" s="2">
+      <c r="Q52" s="2">
         <v>0.95285067873303164</v>
       </c>
-      <c r="R47" s="2">
+      <c r="R52" s="2">
         <v>0.95954022988505749</v>
       </c>
-      <c r="S47" s="2">
+      <c r="S52" s="2">
         <v>0.91064576802507824</v>
       </c>
-      <c r="T47" s="2">
+      <c r="T52" s="2">
         <v>0.92920409543127602</v>
       </c>
-      <c r="Y47" s="2">
+      <c r="Y52" s="2">
         <v>0.97329059829059827</v>
       </c>
-      <c r="Z47" s="2">
+      <c r="Z52" s="2">
         <v>0.89384920634920628</v>
       </c>
-      <c r="AA47" s="2">
+      <c r="AA52" s="2">
         <v>0.81646616541353367</v>
       </c>
-      <c r="AB47" s="2">
+      <c r="AB52" s="2">
         <v>0.78795504495504498</v>
       </c>
-      <c r="AC47" s="2">
+      <c r="AC52" s="2">
         <v>0.87325116713351991</v>
       </c>
-      <c r="AD47" s="2">
+      <c r="AD52" s="2">
         <v>0.86884615384615382</v>
       </c>
-      <c r="AF47" s="2">
+      <c r="AF52" s="2">
         <v>0.87179095098449955</v>
       </c>
-      <c r="AG47" s="2">
+      <c r="AG52" s="2">
         <v>0.86035888139320638</v>
       </c>
-      <c r="AH47" s="2">
+      <c r="AH52" s="2">
         <v>0.8190804597701149</v>
       </c>
-      <c r="AI47" s="2">
+      <c r="AI52" s="2">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AJ47" s="2">
+      <c r="AJ52" s="2">
         <v>0.83800186741363214</v>
       </c>
-      <c r="AK47" s="2">
+      <c r="AK52" s="2">
         <v>0.8004539320328794</v>
       </c>
-      <c r="AL47" s="2">
+      <c r="AL52" s="2">
         <v>0.9135584058184677</v>
       </c>
-      <c r="AR47" s="4">
-        <v>42844.333333333336</v>
-      </c>
-      <c r="AS47" s="3">
+      <c r="AR52" s="4">
+        <v>43209</v>
+      </c>
+      <c r="AS52" s="3">
         <v>0.94019834953253445</v>
       </c>
-      <c r="AT47" s="3">
+      <c r="AT52" s="3">
         <v>1.3245253513486729E-2</v>
       </c>
-      <c r="AU47" s="4">
-        <v>42844.800000000003</v>
-      </c>
-      <c r="AV47" s="3">
+      <c r="AU52" s="4">
+        <v>43209</v>
+      </c>
+      <c r="AV52" s="3">
         <v>0.87477027386019868</v>
       </c>
-      <c r="AW47" s="5">
+      <c r="AW52" s="5">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>44671</v>
+      </c>
+      <c r="AR53" s="4">
+        <v>44671</v>
+      </c>
+      <c r="AU53" s="4">
+        <v>44671</v>
+      </c>
+      <c r="AW53" s="5"/>
+    </row>
+    <row r="54" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>43211</v>
       </c>
-      <c r="AE48" s="2">
+      <c r="AE54" s="2">
         <v>0.92430024905524</v>
       </c>
+      <c r="AR54" s="4">
+        <v>43211</v>
+      </c>
+      <c r="AU54" s="4">
+        <v>43211</v>
+      </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>43212</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B55" s="2">
         <v>0.93498601576404783</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C55" s="2">
         <v>0.8961538828600345</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D55" s="2">
         <v>0.90812698412698423</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E55" s="2">
         <v>0.94313725490196076</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F55" s="2">
         <v>0.97666666666666657</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G55" s="2">
         <v>0.96047619047619059</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H55" s="2">
         <v>0.95235294117647062</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I55" s="2">
         <v>0.93157252104620514</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J55" s="2">
         <v>0.93512626821846578</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K55" s="2">
         <v>0.99285714285714288</v>
       </c>
-      <c r="L49" s="2">
+      <c r="L55" s="2">
         <v>0.95229194613219703</v>
       </c>
-      <c r="M49" s="2">
+      <c r="M55" s="2">
         <v>0.92213841870887714</v>
       </c>
-      <c r="N49" s="2">
+      <c r="N55" s="2">
         <v>0.95451178451178453</v>
       </c>
-      <c r="O49" s="2">
+      <c r="O55" s="2">
         <v>0.9481225296442688</v>
       </c>
-      <c r="P49" s="2">
+      <c r="P55" s="2">
         <v>0.95303476081508121</v>
       </c>
-      <c r="Q49" s="2">
+      <c r="Q55" s="2">
         <v>0.92739560097999774</v>
       </c>
-      <c r="R49" s="2">
+      <c r="R55" s="2">
         <v>0.91376518218623493</v>
       </c>
-      <c r="S49" s="2">
+      <c r="S55" s="2">
         <v>0.94226750261233005</v>
       </c>
-      <c r="T49" s="2">
+      <c r="T55" s="2">
         <v>0.91050505050505048</v>
       </c>
-      <c r="U49" s="2">
+      <c r="U55" s="2">
         <v>0.92801622718052745</v>
       </c>
-      <c r="V49" s="2">
+      <c r="V55" s="2">
         <v>0.92482702482702484</v>
       </c>
-      <c r="W49" s="2">
+      <c r="W55" s="2">
         <v>0.93181818181818188</v>
       </c>
-      <c r="X49" s="2">
+      <c r="X55" s="2">
         <v>0.9544458229942101</v>
       </c>
-      <c r="Y49" s="2">
+      <c r="Y55" s="2">
         <v>0.97810088462262379</v>
       </c>
-      <c r="Z49" s="2">
+      <c r="Z55" s="2">
         <v>0.94175438596491223</v>
       </c>
-      <c r="AA49" s="2">
+      <c r="AA55" s="2">
         <v>0.92089285714285718</v>
       </c>
-      <c r="AB49" s="2">
+      <c r="AB55" s="2">
         <v>0.90684981684981703</v>
       </c>
-      <c r="AC49" s="2">
+      <c r="AC55" s="2">
         <v>0.93777777777777782</v>
       </c>
-      <c r="AD49" s="2">
+      <c r="AD55" s="2">
         <v>0.86515151515151523</v>
       </c>
-      <c r="AE49" s="2">
+      <c r="AE55" s="2">
         <v>0.93678974495772582</v>
       </c>
-      <c r="AF49" s="2">
+      <c r="AF55" s="2">
         <v>0.94099842386499044</v>
       </c>
-      <c r="AG49" s="2">
+      <c r="AG55" s="2">
         <v>0.9388572578789971</v>
       </c>
-      <c r="AH49" s="2">
+      <c r="AH55" s="2">
         <v>0.85126036498871804</v>
       </c>
-      <c r="AI49" s="2">
+      <c r="AI55" s="2">
         <v>0.88889210065680646</v>
       </c>
-      <c r="AJ49" s="2">
+      <c r="AJ55" s="2">
         <v>0.93412698412698403</v>
       </c>
-      <c r="AK49" s="2">
+      <c r="AK55" s="2">
         <v>0.92491228070175435</v>
       </c>
-      <c r="AL49" s="2">
+      <c r="AL55" s="2">
         <v>0.9</v>
       </c>
-      <c r="AM49" s="2">
+      <c r="AM55" s="2">
         <v>0.84288537549407105</v>
       </c>
-      <c r="AN49" s="2">
+      <c r="AN55" s="2">
         <v>0.93419913419913425</v>
       </c>
-      <c r="AO49" s="2">
+      <c r="AO55" s="2">
         <v>0.96239119303635445</v>
       </c>
-      <c r="AP49" s="2">
+      <c r="AP55" s="2">
         <v>0.92309472433311446</v>
       </c>
-      <c r="AQ49" s="2">
+      <c r="AQ55" s="2">
         <v>0.91749809305873387</v>
       </c>
-      <c r="AR49" s="4">
-        <v>42847.333333333336</v>
-      </c>
-      <c r="AS49" s="3">
+      <c r="AR55" s="4">
+        <v>43212</v>
+      </c>
+      <c r="AS55" s="3">
         <v>0.9478200716698244</v>
       </c>
-      <c r="AT49" s="3">
+      <c r="AT55" s="3">
         <v>8.4180692282104889E-3</v>
       </c>
-      <c r="AU49" s="4">
-        <v>42847.6</v>
-      </c>
-      <c r="AV49" s="3">
+      <c r="AU55" s="4">
+        <v>43212</v>
+      </c>
+      <c r="AV55" s="3">
         <v>0.92542049768671786</v>
       </c>
-      <c r="AW49" s="5">
+      <c r="AW55" s="5">
         <v>7.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>44674</v>
+      </c>
+      <c r="AR56" s="4">
+        <v>44674</v>
+      </c>
+      <c r="AU56" s="4">
+        <v>44674</v>
+      </c>
+      <c r="AW56" s="5"/>
+    </row>
+    <row r="57" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>43214</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G57" s="2">
         <v>0.96691297208538585</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H57" s="2">
         <v>0.95619445562519567</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I57" s="2">
         <v>0.97359307359307368</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J57" s="2">
         <v>0.96557197591680344</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K57" s="2">
         <v>0.98057142857142865</v>
       </c>
-      <c r="Z50" s="2">
+      <c r="Z57" s="2">
         <v>0.94461538461538486</v>
       </c>
-      <c r="AA50" s="2">
+      <c r="AA57" s="2">
         <v>0.94456361491965202</v>
       </c>
-      <c r="AB50" s="2">
+      <c r="AB57" s="2">
         <v>0.93889724310776934</v>
       </c>
-      <c r="AC50" s="2">
+      <c r="AC57" s="2">
         <v>0.95913280268118972</v>
       </c>
-      <c r="AD50" s="2">
+      <c r="AD57" s="2">
         <v>0.96087719298245611</v>
+      </c>
+      <c r="AR57" s="4">
+        <v>43214</v>
+      </c>
+      <c r="AU57" s="4">
+        <v>43214</v>
       </c>
     </row>
   </sheetData>
@@ -19632,20 +19520,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3935F12E-CF64-7042-8774-3FA6FC2EEF05}">
-  <dimension ref="A1:AW44"/>
+  <dimension ref="A1:AW57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.83203125" style="13"/>
+    <col min="1" max="1" width="13.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
@@ -19698,7 +19586,7 @@
       <c r="AV1" s="7"/>
       <c r="AW1" s="7"/>
     </row>
-    <row r="2" spans="1:49" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>56</v>
       </c>
@@ -19751,7 +19639,7 @@
       <c r="AV2" s="7"/>
       <c r="AW2" s="7"/>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>57</v>
       </c>
@@ -19804,7 +19692,7 @@
       <c r="AV3" s="3"/>
       <c r="AW3" s="3"/>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>52</v>
       </c>
@@ -19827,7 +19715,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>42798</v>
       </c>
@@ -19837,488 +19725,608 @@
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
+        <v>42799</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
         <v>42800</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="E7" s="12">
-        <v>0.103275885</v>
-      </c>
-      <c r="F7" s="12">
-        <v>1.726743E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
-        <v>42801</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12">
-        <v>0.13701707099999999</v>
+      <c r="E8" s="12">
+        <v>0.103275885</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1.726743E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
-        <v>42802</v>
+        <v>42801</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="12">
-        <v>0.20655177</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0.196273113</v>
-      </c>
-      <c r="G9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12">
+        <v>0.13701707099999999</v>
+      </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
-        <v>42803</v>
+        <v>42802</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
+      <c r="E10" s="12">
+        <v>0.20655177</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.196273113</v>
+      </c>
+      <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
-        <v>42804</v>
+        <v>42803</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="12">
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>42804</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="12">
         <v>0.30982765400000001</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G12" s="12">
         <v>0.27403414199999998</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A12" s="14">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
         <v>42805</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="F12" s="12">
+      <c r="B13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="F13" s="12">
         <v>0.34873012399999997</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
         <v>42806</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12">
         <v>0.71967654999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A14" s="14">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
         <v>42807</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="12">
+      <c r="B15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="12">
         <v>0.59636889900000001</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F15" s="12">
         <v>0.40600043200000002</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A15" s="14">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
         <v>42808</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A16" s="14">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>42809</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
         <v>42810</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15">
         <v>1E-10</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="12">
+      <c r="D18" s="15"/>
+      <c r="E18" s="12">
         <v>0.70951190600000003</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12">
-        <v>0.86343216499999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="14">
-        <v>42811</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="D17" s="12">
-        <v>1.1655011999999999E-2</v>
-      </c>
-      <c r="F17" s="12">
-        <v>0.650046766</v>
-      </c>
-      <c r="G17" s="12">
-        <v>0.87061994600000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="14">
-        <v>42813</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="12">
-        <v>0.106796117</v>
-      </c>
-      <c r="D18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12">
-        <v>0.88858939800000003</v>
+        <v>0.86343216499999997</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
-        <v>42814</v>
-      </c>
-      <c r="B19" s="15">
-        <v>1E-10</v>
-      </c>
-      <c r="E19" s="12">
-        <v>0.80476253099999995</v>
+        <v>42811</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="D19" s="12">
+        <v>1.1655011999999999E-2</v>
       </c>
       <c r="F19" s="12">
-        <v>0.81379955400000004</v>
+        <v>0.650046766</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.87061994600000003</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
-        <v>42815</v>
+        <v>42812</v>
       </c>
       <c r="B20" s="15"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12">
-        <v>0.114219114</v>
-      </c>
-      <c r="E20" s="12"/>
+      <c r="D20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
-        <v>42816</v>
+        <v>42813</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="12">
-        <v>0.405825243</v>
+        <v>0.106796117</v>
       </c>
       <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="G21" s="12">
+        <v>0.88858939800000003</v>
+      </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
-        <v>42817</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+        <v>42814</v>
+      </c>
+      <c r="B22" s="15">
+        <v>1E-10</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0.80476253099999995</v>
+      </c>
       <c r="F22" s="12">
-        <v>0.90272681499999996</v>
-      </c>
-      <c r="G22" s="12">
-        <v>0.92093441200000004</v>
+        <v>0.81379955400000004</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
-        <v>42818</v>
+        <v>42815</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12">
-        <v>0.82975924199999995</v>
-      </c>
+      <c r="D23" s="12">
+        <v>0.114219114</v>
+      </c>
+      <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
+        <v>42816</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="12">
+        <v>0.405825243</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>42817</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12">
+        <v>0.90272681499999996</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0.92093441200000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>42818</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12">
+        <v>0.82975924199999995</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
         <v>42819</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B27" s="12">
         <v>5.1282051000000002E-2</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C27" s="12">
         <v>0.70485436899999998</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="14">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
         <v>42820</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12">
         <v>0.35664335699999999</v>
       </c>
-      <c r="G25" s="12"/>
+      <c r="G28" s="12"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="14">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>42821</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
         <v>42822</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B30" s="12">
         <v>0.102564103</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E30" s="12">
         <v>0.94132351000000003</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F30" s="12">
         <v>0.98388373299999998</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G30" s="12">
         <v>0.92452830200000002</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="14">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>42823</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
         <v>42824</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12">
-        <v>0.92233009700000002</v>
-      </c>
-      <c r="D27" s="12">
-        <v>0.54312354299999999</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="14">
-        <v>42826</v>
-      </c>
-      <c r="B28" s="12">
-        <v>0.15384615400000001</v>
-      </c>
-      <c r="E28" s="12">
-        <v>0.983160111</v>
-      </c>
-      <c r="F28" s="12">
-        <v>0.99510756199999995</v>
-      </c>
-      <c r="G28" s="12">
-        <v>0.93530997299999996</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="14">
-        <v>42828</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12">
-        <v>0.99223300999999997</v>
-      </c>
-      <c r="D29" s="12">
-        <v>0.80419580400000001</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="14">
-        <v>42830</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12">
-        <v>0.99421128800000003</v>
-      </c>
-      <c r="F30" s="12">
-        <v>0.99539535199999996</v>
-      </c>
-      <c r="G30" s="12">
-        <v>0.97843665800000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="14">
-        <v>42831</v>
-      </c>
-      <c r="B31" s="12">
-        <v>0.33333333300000001</v>
-      </c>
-      <c r="D31" s="12">
-        <v>0.84149184200000005</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="14">
-        <v>42833</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12">
-        <v>0.99223300999999997</v>
-      </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12">
-        <v>0.99736876699999999</v>
-      </c>
-      <c r="F32" s="12">
-        <v>0.99683430500000003</v>
-      </c>
-      <c r="G32" s="12">
-        <v>0.99281221900000005</v>
-      </c>
+        <v>0.92233009700000002</v>
+      </c>
+      <c r="D32" s="12">
+        <v>0.54312354299999999</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
-        <v>42834</v>
+        <v>42825</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="12">
-        <v>0.89743589800000001</v>
-      </c>
+      <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
-        <v>42835</v>
+        <v>42826</v>
       </c>
       <c r="B34" s="12">
-        <v>0.38461538499999998</v>
+        <v>0.15384615400000001</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0.983160111</v>
+      </c>
+      <c r="F34" s="12">
+        <v>0.99510756199999995</v>
+      </c>
+      <c r="G34" s="12">
+        <v>0.93530997299999996</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
-        <v>42836</v>
+        <v>42827</v>
       </c>
       <c r="B35" s="12"/>
-      <c r="E35" s="12">
-        <v>0.99763189100000005</v>
-      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
-        <v>42837</v>
+        <v>42828</v>
       </c>
       <c r="B36" s="12"/>
+      <c r="C36" s="12">
+        <v>0.99223300999999997</v>
+      </c>
       <c r="D36" s="12">
-        <v>0.94405594400000004</v>
-      </c>
-      <c r="F36" s="12">
-        <v>0.99942441900000001</v>
-      </c>
-      <c r="G36" s="12">
-        <v>1</v>
-      </c>
+        <v>0.80419580400000001</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
-        <v>42838</v>
-      </c>
-      <c r="B37" s="12">
-        <v>0.51282051299999998</v>
-      </c>
-      <c r="C37" s="12">
-        <v>0.99223300999999997</v>
-      </c>
+        <v>42829</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
-        <v>42839</v>
+        <v>42830</v>
       </c>
       <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="12">
-        <v>0.99894750700000001</v>
+        <v>0.99421128800000003</v>
+      </c>
+      <c r="F38" s="12">
+        <v>0.99539535199999996</v>
+      </c>
+      <c r="G38" s="12">
+        <v>0.97843665800000001</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
-        <v>42840</v>
-      </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
+        <v>42831</v>
+      </c>
+      <c r="B39" s="12">
+        <v>0.33333333300000001</v>
+      </c>
       <c r="D39" s="12">
-        <v>0.97202797200000002</v>
-      </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12">
-        <v>0.99971220999999999</v>
-      </c>
-      <c r="G39" s="12"/>
+        <v>0.84149184200000005</v>
+      </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
-        <v>42841</v>
-      </c>
-      <c r="B40" s="12">
-        <v>0.56410256400000003</v>
-      </c>
+        <v>42832</v>
+      </c>
+      <c r="B40" s="12"/>
+      <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
-        <v>42843</v>
+        <v>42833</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="12">
         <v>0.99223300999999997</v>
       </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12">
+        <v>0.99736876699999999</v>
+      </c>
+      <c r="F41" s="12">
+        <v>0.99683430500000003</v>
+      </c>
+      <c r="G41" s="12">
+        <v>0.99281221900000005</v>
+      </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
-        <v>42844</v>
+        <v>42834</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12">
+        <v>0.89743589800000001</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
+        <v>42835</v>
+      </c>
+      <c r="B43" s="12">
+        <v>0.38461538499999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
+        <v>42836</v>
+      </c>
+      <c r="B44" s="12"/>
+      <c r="E44" s="12">
+        <v>0.99763189100000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
+        <v>42837</v>
+      </c>
+      <c r="B45" s="12"/>
+      <c r="D45" s="12">
+        <v>0.94405594400000004</v>
+      </c>
+      <c r="F45" s="12">
+        <v>0.99942441900000001</v>
+      </c>
+      <c r="G45" s="12">
         <v>1</v>
       </c>
-      <c r="E42" s="12">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
+        <v>42838</v>
+      </c>
+      <c r="B46" s="12">
+        <v>0.51282051299999998</v>
+      </c>
+      <c r="C46" s="12">
+        <v>0.99223300999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
+        <v>42839</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="E47" s="12">
+        <v>0.99894750700000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
+        <v>42840</v>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12">
+        <v>0.97202797200000002</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12">
+        <v>0.99971220999999999</v>
+      </c>
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
+        <v>42841</v>
+      </c>
+      <c r="B49" s="12">
+        <v>0.56410256400000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
+        <v>42842</v>
+      </c>
+      <c r="B50" s="12"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="14">
+        <v>42843</v>
+      </c>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12">
+        <v>0.99223300999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
+        <v>42844</v>
+      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12">
         <v>1</v>
       </c>
-      <c r="F42" s="12">
+      <c r="E52" s="12">
         <v>1</v>
       </c>
-      <c r="G42" s="12"/>
+      <c r="F52" s="12">
+        <v>1</v>
+      </c>
+      <c r="G52" s="12"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="14">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
+        <v>42845</v>
+      </c>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="14">
+        <v>42846</v>
+      </c>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="14">
         <v>42847</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12">
+      <c r="B55" s="12"/>
+      <c r="C55" s="12">
         <v>1</v>
       </c>
-      <c r="E43" s="12"/>
+      <c r="E55" s="12"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="14">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="14">
+        <v>42848</v>
+      </c>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="E56" s="12"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="14">
         <v>42849</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B57" s="12">
         <v>1</v>
       </c>
     </row>
@@ -20332,24 +20340,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6C0713-8FE1-E54D-8820-C22D7C5AEAB4}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="5.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="2"/>
     <col min="6" max="6" width="5.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>68</v>
       </c>
@@ -20363,7 +20371,7 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>66</v>
       </c>
@@ -20377,7 +20385,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>62</v>
       </c>
@@ -20404,7 +20412,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -20432,7 +20440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -20462,7 +20470,7 @@
         <v>0.77477477477477474</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -20492,7 +20500,7 @@
         <v>0.32432432432432434</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -20522,7 +20530,7 @@
         <v>8.1081081081081086E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -20552,7 +20560,7 @@
         <v>1.8018018018018018E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -20582,7 +20590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -20612,7 +20620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>7</v>
       </c>
@@ -20628,7 +20636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>8</v>
       </c>
